--- a/spliced/falling/2023-03-25_17-59-26/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-26/gyroscope_selected.xlsx
@@ -452,222 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02312735825777049</v>
+        <v>0.03629761248826986</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.06875288158655167</v>
+        <v>0.01907121278345579</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.001032362207770397</v>
+        <v>0.05546045627444995</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1697350136935719</v>
+        <v>0.05165476366877556</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2189157873392111</v>
+        <v>-0.0003787364251911958</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.04578435219824339</v>
+        <v>0.03377473920583711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.2920058012008669</v>
+        <v>0.02702467799186697</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2727635514736176</v>
+        <v>-0.02729956846684218</v>
       </c>
       <c r="C4" t="n">
-        <v>0.126033713221551</v>
+        <v>-0.006963863894343374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.2655186891555784</v>
+        <v>0.02345722466707222</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2190562760829923</v>
+        <v>-0.01078177168965329</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6186354464292545</v>
+        <v>-0.01979203335940831</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.2926044583320622</v>
+        <v>0.02312735825777049</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3912286460399645</v>
+        <v>-0.06875288158655167</v>
       </c>
       <c r="C6" t="n">
-        <v>0.472412636876103</v>
+        <v>-0.001032362207770397</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.02654820919036799</v>
+        <v>-0.1697350136935719</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1870408368110673</v>
+        <v>-0.2189157873392111</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.7209736722707767</v>
+        <v>-0.04578435219824339</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.565036740303041</v>
+        <v>-0.2920058012008669</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.7936239337921156</v>
+        <v>-0.2727635514736176</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.525304698944093</v>
+        <v>0.126033713221551</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.211272468566887</v>
+        <v>-0.2655186891555784</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4785640525817794</v>
+        <v>-0.2190562760829923</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.630715656280514</v>
+        <v>0.6186354464292545</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.08948565244675255</v>
+        <v>-0.2926044583320622</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.522057590484637</v>
+        <v>-0.3912286460399645</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.111322727203364</v>
+        <v>0.472412636876103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.5279402807354899</v>
+        <v>-0.02654820919036799</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.442680406570422</v>
+        <v>0.1870408368110673</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08100073337555302</v>
+        <v>-0.7209736722707767</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.09629679918289313</v>
+        <v>1.565036740303041</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4833410131931261</v>
+        <v>-0.7936239337921156</v>
       </c>
       <c r="C12" t="n">
-        <v>0.534000061750409</v>
+        <v>-2.525304698944093</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.2217929553985592</v>
+        <v>1.211272468566887</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1976026952266694</v>
+        <v>-0.4785640525817794</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.07598552823066797</v>
+        <v>-2.630715656280514</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.01921781659126266</v>
+        <v>0.08948565244675255</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1601200026273725</v>
+        <v>-0.522057590484637</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3930673503875731</v>
+        <v>-1.111322727203364</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1233581319451331</v>
+        <v>0.5279402807354899</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0740124344825745</v>
+        <v>-1.442680406570422</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1553430366516109</v>
+        <v>0.08100073337555302</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.02880229651927913</v>
+        <v>-0.09629679918289313</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08823948577046314</v>
+        <v>0.4833410131931261</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1134376771748063</v>
+        <v>0.534000061750409</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.04516126751899735</v>
+        <v>-0.2217929553985592</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.04690834142267682</v>
+        <v>-0.1976026952266694</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04470311729237415</v>
+        <v>-0.07598552823066797</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.08489194503053989</v>
+        <v>-0.01921781659126266</v>
       </c>
       <c r="B18" t="n">
-        <v>0.003543018288910211</v>
+        <v>-0.1601200026273725</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.01284038770012586</v>
+        <v>-0.3930673503875731</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.006982189631089474</v>
+        <v>0.1233581319451331</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.03079982601106174</v>
+        <v>0.0740124344825745</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.09092118501663188</v>
+        <v>-0.1553430366516109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0009346238337456938</v>
+        <v>0.02880229651927913</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.08996823592111455</v>
+        <v>0.08823948577046314</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.006743952780961876</v>
+        <v>0.1134376771748063</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0059559359215199</v>
+        <v>-0.04516126751899735</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0061086523346602</v>
+        <v>-0.04690834142267682</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0476474873721599</v>
+        <v>0.04470311729237415</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-59-26/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-26/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.03629761248826986</v>
+        <v>-0.0005742134153842587</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01907121278345579</v>
+        <v>0.0210748501121997</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05546045627444995</v>
+        <v>0.04580267548561091</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.05165476366877556</v>
+        <v>-0.0293826170265674</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0003787364251911958</v>
+        <v>0.0331699833273887</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03377473920583711</v>
+        <v>0.01545489076524965</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.02702467799186697</v>
+        <v>-0.02163684628903856</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.02729956846684218</v>
+        <v>0.01164309203624722</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.006963863894343374</v>
+        <v>-0.01903456177562478</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.02345722466707222</v>
+        <v>-0.00761748962104312</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.01078177168965329</v>
+        <v>-0.02296242564916602</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.01979203335940831</v>
+        <v>-0.00737925238907336</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.02312735825777049</v>
+        <v>-0.03987117595970628</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.06875288158655167</v>
+        <v>-0.01981036089360703</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.001032362207770397</v>
+        <v>0.01966986127197736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.1697350136935719</v>
+        <v>-0.04132503550499657</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2189157873392111</v>
+        <v>-0.01673159938305617</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.04578435219824339</v>
+        <v>0.0125227374956011</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2920058012008669</v>
+        <v>-0.01340849157422786</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2727635514736176</v>
+        <v>-0.03075706511735912</v>
       </c>
       <c r="C8" t="n">
-        <v>0.126033713221551</v>
+        <v>-0.009834930114448132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.2655186891555784</v>
+        <v>-0.03994447708129877</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2190562760829923</v>
+        <v>-0.01221119597554203</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6186354464292545</v>
+        <v>-0.04150218397378917</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.2926044583320622</v>
+        <v>-0.03637702405452719</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3912286460399645</v>
+        <v>0.01701259657740584</v>
       </c>
       <c r="C10" t="n">
-        <v>0.472412636876103</v>
+        <v>-0.03676186949014657</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.02654820919036799</v>
+        <v>-0.03740938737988467</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1870408368110673</v>
+        <v>0.01381166309118263</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.7209736722707767</v>
+        <v>-0.03841120541095729</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.565036740303041</v>
+        <v>-0.04191757388412946</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.7936239337921156</v>
+        <v>0.01410487815737716</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.525304698944093</v>
+        <v>-0.03918089691549535</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.211272468566887</v>
+        <v>0.01087340153753754</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.4785640525817794</v>
+        <v>0.01499674115329971</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.630715656280514</v>
+        <v>-0.01282817013561728</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.08948565244675255</v>
+        <v>0.02458121769130225</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.522057590484637</v>
+        <v>0.01081842321902504</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.111322727203364</v>
+        <v>-0.04899139240384098</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.5279402807354899</v>
+        <v>0.01802052438259117</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.442680406570422</v>
+        <v>0.00392786357551804</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08100073337555302</v>
+        <v>-0.03619987547397605</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.09629679918289313</v>
+        <v>0.01199739351868624</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4833410131931261</v>
+        <v>-0.0002138027921320222</v>
       </c>
       <c r="C16" t="n">
-        <v>0.534000061750409</v>
+        <v>0.03830125063657756</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.2217929553985592</v>
+        <v>0.01877188928425304</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1976026952266694</v>
+        <v>-0.01797165483236304</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.07598552823066797</v>
+        <v>0.03120299618691198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.01921781659126266</v>
+        <v>-0.0108428578823804</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1601200026273725</v>
+        <v>-0.0058032199740409</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3930673503875731</v>
+        <v>-0.0042760567739605</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1233581319451331</v>
+        <v>0.01026864476501944</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0740124344825745</v>
+        <v>0.01618792921304707</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1553430366516109</v>
+        <v>0.006133087240159481</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.02880229651927913</v>
+        <v>0.03629761248826986</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08823948577046314</v>
+        <v>0.01907121278345579</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1134376771748063</v>
+        <v>0.05546045627444995</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.04516126751899735</v>
+        <v>0.05165476366877556</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.04690834142267682</v>
+        <v>-0.0003787364251911958</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04470311729237415</v>
+        <v>0.03377473920583711</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.02702467799186697</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.02729956846684218</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.006963863894343374</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.02345722466707222</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.01078177168965329</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.01979203335940831</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.02312735825777049</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.06875288158655167</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.001032362207770397</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.1697350136935719</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.2189157873392111</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.04578435219824339</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.2920058012008669</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.2727635514736176</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.126033713221551</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.2655186891555784</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.2190562760829923</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.6186354464292545</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.2926044583320622</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.3912286460399645</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.472412636876103</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.02654820919036799</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1870408368110673</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.7209736722707767</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.565036740303041</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.7936239337921156</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-2.525304698944093</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.211272468566887</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.4785640525817794</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-2.630715656280514</v>
       </c>
     </row>
   </sheetData>
